--- a/lr11(strategy and testcase)/Стратегия тестирования и Test Case Максимов Миронов Пугачева 171-334.xlsx
+++ b/lr11(strategy and testcase)/Стратегия тестирования и Test Case Максимов Миронов Пугачева 171-334.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\y4e6a\progeng\lr11(strategy and testcase)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E38A3D6-1E7E-4AB8-A86A-9191615C6CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA609009-2964-4484-9B4B-D80546B75431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
   <si>
     <t>Тест-кейсы</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>Система не рекомендуется для установки, т.к. не прошла все тесты</t>
+  </si>
+  <si>
+    <t>Миронов</t>
   </si>
 </sst>
 </file>
@@ -4738,7 +4741,7 @@
         <v>55</v>
       </c>
       <c r="D6" s="131" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="289.5" customHeight="1">

--- a/lr11(strategy and testcase)/Стратегия тестирования и Test Case Максимов Миронов Пугачева 171-334.xlsx
+++ b/lr11(strategy and testcase)/Стратегия тестирования и Test Case Максимов Миронов Пугачева 171-334.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\y4e6a\progeng\lr11(strategy and testcase)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA609009-2964-4484-9B4B-D80546B75431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915CD8F7-97A0-4888-9F8F-25B8D9658CA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Тест-кейс 1" sheetId="3" r:id="rId3"/>
     <sheet name="Тест-кейс 2" sheetId="4" r:id="rId4"/>
     <sheet name="Дефект 1" sheetId="5" r:id="rId5"/>
-    <sheet name="Отчет" sheetId="7" r:id="rId6"/>
+    <sheet name="Дефект 2" sheetId="8" r:id="rId6"/>
+    <sheet name="Отчет" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="127">
   <si>
     <t>Тест-кейсы</t>
   </si>
@@ -353,12 +354,6 @@
     <t>Тест-кейс для просмотра таблиц</t>
   </si>
   <si>
-    <t>Нажатие на кнопку "Результаты"</t>
-  </si>
-  <si>
-    <t>Открытие окна с пустой таблицей</t>
-  </si>
-  <si>
     <t>Обеспечение корректного функционирования разработанного программного продукта - приложения для расчета вращающихся дисков машин</t>
   </si>
   <si>
@@ -366,21 +361,6 @@
   </si>
   <si>
     <t>Тест-план системного тестирования УИ САПР "Расчет дисков машин"</t>
-  </si>
-  <si>
-    <t>Нажатие на кнопки переключения между видами значений для вывода</t>
-  </si>
-  <si>
-    <t>Пустые или нулевые таблицы</t>
-  </si>
-  <si>
-    <t>Расчитать диск со значениями по умолчанию и открыть таблицы</t>
-  </si>
-  <si>
-    <t>Расчитать диск с неверными открыть таблицы</t>
-  </si>
-  <si>
-    <t>Поля таблицы заполнены расчетными данными</t>
   </si>
   <si>
     <t>Medium</t>
@@ -413,6 +393,49 @@
   <si>
     <t>Миронов</t>
   </si>
+  <si>
+    <t>Пугачева</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Ввод данных" и оставить данные по умолчанию</t>
+  </si>
+  <si>
+    <t>Нажать кнопку "Запуск"</t>
+  </si>
+  <si>
+    <t>Снова нажать кнопку "Ввод данных"</t>
+  </si>
+  <si>
+    <t>Открылось окно ввода данных</t>
+  </si>
+  <si>
+    <t>Нажать "ОК"</t>
+  </si>
+  <si>
+    <t>Возвращение к главной форме</t>
+  </si>
+  <si>
+    <t>Расчет проходит</t>
+  </si>
+  <si>
+    <t>Не открывается окно ввода</t>
+  </si>
+  <si>
+    <t>Шаги воспроизведения 
+ 1 Запустить приложение RADStudio
+ 2 Запустить проект DISK_03
+ 3 Запустить приложение
+ 4 Нажать на кнопку "Ввод данных"
+ 5 Нажмем кнопку "ОК". 
+ 6 Снова нажать на кнопку "Ввод данных"
+Ожидаемый результат:
+При нажатии на кнопку "Ввод данных" открывается окно ввода
+ Наблюдаемый результат:
+Окно ввода, не успев появиться, выключается</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
 </sst>
 </file>
 
@@ -421,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -668,8 +691,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,6 +770,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1001,10 +1036,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1258,7 +1294,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1314,9 +1349,12 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="14" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1390,6 +1428,54 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3305641</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89260E01-BBBD-4A64-9466-BC97D36F140A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="11303" t="19262" r="37544" b="17952"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="3762375"/>
+          <a:ext cx="4429126" cy="3057991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1648,7 +1734,7 @@
     <row r="3" spans="1:15" ht="53.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="122" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1703,7 +1789,7 @@
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="121" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1758,7 +1844,7 @@
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="1"/>
       <c r="B9" s="121" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -3008,30 +3094,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="138"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="137"/>
       <c r="F1" s="104" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="105"/>
       <c r="H1" s="105"/>
-      <c r="I1" s="142" t="s">
+      <c r="I1" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="143"/>
-      <c r="K1" s="144"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A2" s="139"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="106">
         <v>43956</v>
       </c>
@@ -4206,7 +4292,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4241,7 +4327,7 @@
       <c r="A2" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="144" t="s">
         <v>103</v>
       </c>
       <c r="C2" s="85"/>
@@ -4257,7 +4343,7 @@
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1">
       <c r="A3" s="94"/>
-      <c r="B3" s="146"/>
+      <c r="B3" s="145"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
       <c r="E3" s="85"/>
@@ -4273,7 +4359,9 @@
       <c r="A4" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="91" t="s">
+        <v>115</v>
+      </c>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -4441,7 +4529,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4451,7 +4539,7 @@
     <col min="3" max="3" width="67.85546875" customWidth="1"/>
     <col min="4" max="4" width="56.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" customWidth="1"/>
   </cols>
@@ -4478,7 +4566,7 @@
       <c r="A2" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="146" t="s">
         <v>105</v>
       </c>
       <c r="C2" s="85"/>
@@ -4494,21 +4582,25 @@
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
       <c r="A3" s="94"/>
-      <c r="B3" s="148"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
       <c r="E3" s="85"/>
       <c r="F3" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="87"/>
+      <c r="G3" s="87">
+        <v>2</v>
+      </c>
       <c r="H3" s="109"/>
     </row>
     <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="C4" s="81"/>
       <c r="D4" s="81"/>
       <c r="E4" s="81"/>
@@ -4565,10 +4657,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>45</v>
@@ -4581,11 +4673,11 @@
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="80" t="s">
-        <v>111</v>
+      <c r="C9" t="s">
+        <v>121</v>
       </c>
       <c r="D9" s="123" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>45</v>
@@ -4599,10 +4691,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D10" s="123" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>45</v>
@@ -4611,22 +4703,24 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="12.75">
+    <row r="11" spans="1:8" ht="14.25">
       <c r="B11" s="127">
         <v>5</v>
       </c>
-      <c r="C11" s="128" t="s">
-        <v>114</v>
+      <c r="C11" s="80" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="129" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
+        <v>120</v>
+      </c>
+      <c r="E11" s="161"/>
+      <c r="F11" s="160" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="32.25" customHeight="1">
       <c r="B12" s="116"/>
@@ -4652,8 +4746,8 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4665,23 +4759,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="133" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="148" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="151"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="150"/>
     </row>
     <row r="2" spans="1:4" ht="15">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="133" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="41">
         <v>1</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="133" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="41">
@@ -4689,27 +4783,27 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="132" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="134" t="s">
+      <c r="B3" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="130" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="133" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="134" t="s">
+      <c r="B4" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="133" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="42">
@@ -4717,50 +4811,50 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="133" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="131" t="s">
-        <v>116</v>
+      <c r="D5" s="130" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="133" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="43">
         <v>43956</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="133" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="131" t="s">
-        <v>122</v>
+      <c r="D6" s="130" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="289.5" customHeight="1">
-      <c r="A7" s="135" t="s">
+      <c r="A7" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="152" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="154"/>
+      <c r="B7" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
     </row>
     <row r="8" spans="1:4" ht="144" customHeight="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="157"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="156"/>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="37"/>
@@ -4780,14 +4874,138 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7267F83A-0E2B-4772-954E-D9C492AD2145}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="58.85546875" customWidth="1"/>
+    <col min="4" max="4" width="65" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="149"/>
+      <c r="D1" s="150"/>
+    </row>
+    <row r="2" spans="1:4" ht="15">
+      <c r="A2" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="41">
+        <v>2</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="131" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="130" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="133" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="133" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="130" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="43">
+        <v>43956</v>
+      </c>
+      <c r="C6" s="133" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="130" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="186.75" customHeight="1">
+      <c r="A7" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="151" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+    </row>
+    <row r="8" spans="1:4" ht="282.75" customHeight="1">
+      <c r="A8" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="156"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4797,11 +5015,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="158" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
+      <c r="A1" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -4962,11 +5180,11 @@
         <v>64</v>
       </c>
       <c r="B10" s="53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="54">
         <f>(($B$10/$B$7)*100%)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -4997,7 +5215,7 @@
         <v>65</v>
       </c>
       <c r="B12" s="50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="54">
         <f>(($B$12/$B$12)*100%)</f>
@@ -5039,11 +5257,11 @@
         <v>67</v>
       </c>
       <c r="B14" s="53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -5064,7 +5282,7 @@
       </c>
       <c r="C15" s="54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
@@ -5163,20 +5381,20 @@
       <c r="L20" s="37"/>
     </row>
     <row r="21" spans="1:12" ht="14.25">
-      <c r="A21" s="160" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
-      <c r="D21" s="159"/>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="159"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
+      <c r="A21" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="158"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="158"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="158"/>
+      <c r="J21" s="158"/>
+      <c r="K21" s="158"/>
+      <c r="L21" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="2">
